--- a/Automarket1/test.xlsx
+++ b/Automarket1/test.xlsx
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,58 +427,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8888</v>
+        <v>3333</v>
       </c>
       <c r="B2">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>8888</v>
-      </c>
-      <c r="B3">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>8888</v>
-      </c>
-      <c r="B4">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8888</v>
-      </c>
-      <c r="B5">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>8888</v>
-      </c>
-      <c r="B6">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6666</v>
-      </c>
-      <c r="B7">
-        <v>6666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6666</v>
-      </c>
-      <c r="B8">
-        <v>6666</v>
+        <v>3333</v>
       </c>
     </row>
   </sheetData>
